--- a/medicine/Enfance/Max-André_Rayjean/Max-André_Rayjean.xlsx
+++ b/medicine/Enfance/Max-André_Rayjean/Max-André_Rayjean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Max-Andr%C3%A9_Rayjean</t>
+          <t>Max-André_Rayjean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max-André Rayjean, nom de plume de Jean Lombard, né le 21 octobre 1929[1] à Valence, dans le département de la Drôme, en France, est un auteur de roman policier, de science-fiction et de scénario de bande dessinée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max-André Rayjean, nom de plume de Jean Lombard, né le 21 octobre 1929 à Valence, dans le département de la Drôme, en France, est un auteur de roman policier, de science-fiction et de scénario de bande dessinée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Max-Andr%C3%A9_Rayjean</t>
+          <t>Max-André_Rayjean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max-André Rayjean effectue ses études primaires et secondaires dans sa ville natale de Valence. Il obtient son Brevet élémentaire (ancêtre du BEPC, puis Brevet des collèges) mais, obligé de gagner sa vie, il ne peut longtemps prolonger son parcours scolaire, ni se présenter au baccalauréat. Il décroche grâce à son Brevet un emploi aux PTT, qu'il doit rapidement quitter en raison de compressions de personnel. Il part alors en Allemagne effectuer son service militaire, au cours duquel il retrouve sa fonction de postier[2].
-La passion de Jean Lombard pour l'auteur Max-André Dazergues l'amène à l'écriture dès son adolescence, et lui suggèrera plus tard le prénom de son pseudonyme, Max-André[3]. Quant au nom même de Rayjean, il résulte de la combinaison de la première syllabe du prénom de son épouse, Raymonde, et du sien[2].
-Débuts littéraires
-Ses premières tentatives d'écrivain consistent à envoyer des textes à des journaux illustrés pour la jeunesse et relevant de la presse catholique, tels que Fripounet, Cœurs Vaillants et Âmes Vaillantes. Le premier à être publié est une nouvelle, parue en mars 1948 dans Le Journal des Voyages[2].
-Ses premiers écrits sont essentiellement des récits d'aventures pour adolescents qu'il publie sous forme de feuilletons. Sa carrière de scénariste de bandes dessinées débute à son retour de service militaire en 1954. Pendant 20 ans, il créera des scénarios pour les éditions Arédit/Artima dans plusieurs publications (Ardan, Cosmos, Hardy, Ray Halcotan, Red Canyon, Téméraire et Téméraire Spécial, Thierry, Tim l’Audace, Vigor).
-L'auteur de science-fiction
-C'est en 1956 que paraît son premier roman de science-fiction, Attaque sub-terrestre, le no 71 de la collection Fleuve Noir Anticipation. Il est également l'auteur d'un autre ouvrage marquant, Les Parias de l'atome, édité l'année suivante dans la même collection (n° 104), qui sera le premier de ses livres à être traduit par la suite en plusieurs langues. Il publie aussi quelques nouvelles dans divers magazine de science-fiction (ainsi, « La planète de l'éternelle vie » dans Galaxie en 1957), mais ces rares incursions dans le genre du récit court de fiction sont restées exceptionnelles.
-Il devient l'un des quatre ou cinq auteurs-phares de la collection Anticipation chez Fleuve noir. Ses récits, reposant le plus souvent sur une thématique biologique, se caractérisent par un ton plus noir et plus pessimiste que ceux de ses confrères du Fleuve[4].
-Après avoir été remercié par les éditions Fleuve Noir à la fin des années 1980, avec plusieurs autres anciens auteurs de la collection « Anticipation » , il trouve refuge chez Black Coat Press qui a publié ses derniers romans dans la collection « Rivière Blanche » à partir de 2006. Le premier d'entre eux est le no 2018 de la « Collection Blanche »[5], Le Cycle d'Orga.
-L'auteur de fantastique
-Max-André Rayjean ne se lance dans la littérature fantastique que sur le tard, alors qu'il a déjà produit la moitié de son œuvre de science-fiction. Sans doute à la suggestion de sa maison d'édition Fleuve noir, il publie de 1970 à 1974 six romans relevant de ce genre littéraire dans la collection « Angoisse », dont le premier est le no 178, Le Sang et la Chair. Deux autres ouvrages, initialement conçus pour la collection « Angoisse », ne virent le jour qu'en 2012, toujours chez Black Coat Press, collection « Rivière Blanche / Collection Noire ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max-André Rayjean effectue ses études primaires et secondaires dans sa ville natale de Valence. Il obtient son Brevet élémentaire (ancêtre du BEPC, puis Brevet des collèges) mais, obligé de gagner sa vie, il ne peut longtemps prolonger son parcours scolaire, ni se présenter au baccalauréat. Il décroche grâce à son Brevet un emploi aux PTT, qu'il doit rapidement quitter en raison de compressions de personnel. Il part alors en Allemagne effectuer son service militaire, au cours duquel il retrouve sa fonction de postier.
+La passion de Jean Lombard pour l'auteur Max-André Dazergues l'amène à l'écriture dès son adolescence, et lui suggèrera plus tard le prénom de son pseudonyme, Max-André. Quant au nom même de Rayjean, il résulte de la combinaison de la première syllabe du prénom de son épouse, Raymonde, et du sien.
 </t>
         </is>
       </c>
@@ -534,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Max-Andr%C3%A9_Rayjean</t>
+          <t>Max-André_Rayjean</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,23 +554,247 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Débuts littéraires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses premières tentatives d'écrivain consistent à envoyer des textes à des journaux illustrés pour la jeunesse et relevant de la presse catholique, tels que Fripounet, Cœurs Vaillants et Âmes Vaillantes. Le premier à être publié est une nouvelle, parue en mars 1948 dans Le Journal des Voyages.
+Ses premiers écrits sont essentiellement des récits d'aventures pour adolescents qu'il publie sous forme de feuilletons. Sa carrière de scénariste de bandes dessinées débute à son retour de service militaire en 1954. Pendant 20 ans, il créera des scénarios pour les éditions Arédit/Artima dans plusieurs publications (Ardan, Cosmos, Hardy, Ray Halcotan, Red Canyon, Téméraire et Téméraire Spécial, Thierry, Tim l’Audace, Vigor).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'auteur de science-fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1956 que paraît son premier roman de science-fiction, Attaque sub-terrestre, le no 71 de la collection Fleuve Noir Anticipation. Il est également l'auteur d'un autre ouvrage marquant, Les Parias de l'atome, édité l'année suivante dans la même collection (n° 104), qui sera le premier de ses livres à être traduit par la suite en plusieurs langues. Il publie aussi quelques nouvelles dans divers magazine de science-fiction (ainsi, « La planète de l'éternelle vie » dans Galaxie en 1957), mais ces rares incursions dans le genre du récit court de fiction sont restées exceptionnelles.
+Il devient l'un des quatre ou cinq auteurs-phares de la collection Anticipation chez Fleuve noir. Ses récits, reposant le plus souvent sur une thématique biologique, se caractérisent par un ton plus noir et plus pessimiste que ceux de ses confrères du Fleuve.
+Après avoir été remercié par les éditions Fleuve Noir à la fin des années 1980, avec plusieurs autres anciens auteurs de la collection « Anticipation » , il trouve refuge chez Black Coat Press qui a publié ses derniers romans dans la collection « Rivière Blanche » à partir de 2006. Le premier d'entre eux est le no 2018 de la « Collection Blanche », Le Cycle d'Orga.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'auteur de fantastique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max-André Rayjean ne se lance dans la littérature fantastique que sur le tard, alors qu'il a déjà produit la moitié de son œuvre de science-fiction. Sans doute à la suggestion de sa maison d'édition Fleuve noir, il publie de 1970 à 1974 six romans relevant de ce genre littéraire dans la collection « Angoisse », dont le premier est le no 178, Le Sang et la Chair. Deux autres ouvrages, initialement conçus pour la collection « Angoisse », ne virent le jour qu'en 2012, toujours chez Black Coat Press, collection « Rivière Blanche / Collection Noire ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Littérature d'enfance et de jeunesse
-Le Génie du fleuve
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Génie du fleuve
 Prisonniers des Andes
-L'Île de l'angoisse
-Romans policiers
-Le Dernier Acte, Éditions du Puits-Pelu, coll. « Le Glaive » no 60 (1951)
-La Morte du Métropolitain, Éditions du Puits-Pelu, coll. « Le Glaive » no 115 (1956)
-Romans d'espionnage
-Épreuve de force, Éditions Jacquier, coll. « La Loupe Espionnage » no 78, 1960, sous le nom de Jean Lombard.
-Science-fiction
-Romans
-Au Fleuve noir
+L'Île de l'angoisse</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Dernier Acte, Éditions du Puits-Pelu, coll. « Le Glaive » no 60 (1951)
+La Morte du Métropolitain, Éditions du Puits-Pelu, coll. « Le Glaive » no 115 (1956)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans d'espionnage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Épreuve de force, Éditions Jacquier, coll. « La Loupe Espionnage » no 78, 1960, sous le nom de Jean Lombard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Science-fiction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Au Fleuve noir
 Attaque sub-terrestre, Fleuve noir, coll. « Fleuve Noir Anticipation » no 71, 1956
 Base spatiale 14, Fleuve noir, coll. « Fleuve Noir Anticipation » no 86, 1957
 Les Parias de l'atome, Fleuve noir, coll. « Fleuve Noir Anticipation » no 104, 1957
@@ -595,7 +824,7 @@
 Le Cerveau de Silstar, Fleuve noir, coll. « Fleuve Noir Anticipation » no 275, 1965
 Traduction espagnole : El Cerebro de Silstar, Picazo, coll. « Marte XXI » no 5, 1966
 Le Zoo des Astors, Fleuve noir, coll. « Fleuve Noir Anticipation » no 284, 1966
-Traduction russe : Зоопарк асторов, 1966[6]
+Traduction russe : Зоопарк асторов, 1966
 Plan S.03, Fleuve noir, coll. « Fleuve Noir Anticipation » no 291, 1966
 Traduction espagnole : Plan S.03, Picazo, coll. « Marte XXI » no 13, 1966
 Les Clés de l'univers, Fleuve noir, coll. « Fleuve Noir Anticipation » no 303, 1966
@@ -658,56 +887,207 @@
 Défi à la Terre in Défi à la Terre suivi de Le Dieu artificiel, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2071, 2008  (ISBN 978-1-935558-30-9)
 Le Dieu artificiel in Défi à la Terre suivi de Le Dieu artificiel, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2071, 2008  (ISBN 978-1-935558-30-9)
 Opération Étoile, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2120, 2014  (ISBN 978-1-61227-326-6)
-Dictatorad, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2137, 2016  (ISBN 978-1-61227-489-8)
-Nouvelles
-« Le Génie du fleuve », 1948; rééd. in Le Cycle d'Orga, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2018, 2006  (ISBN 1-932983-41-4).
+Dictatorad, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2137, 2016  (ISBN 978-1-61227-489-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Science-fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>« Le Génie du fleuve », 1948; rééd. in Le Cycle d'Orga, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2018, 2006  (ISBN 1-932983-41-4).
 « La Planète de l'éternelle vie », Galaxie 1re série no 49, décembre 1957, p. 39-50.
 « Le Libérateur », in Le Jardin sidéral no 11, Cercle littéraire d'Anticipation, janvier-février 1963, p. 19-21.
 « Le Mur de la lumière », in Mercury no 15, octobre 1967, p. 14-17 ; rééd. in Le Cycle d'Orga, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2018, 2006  (ISBN 1-932983-41-4).
 « Le Grand Exode », in Fantascienza no 2-3, juin 1980, p. 67-68 ; rééd. in Le Cycle d'Orga, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2018, 2006  (ISBN 1-932983-41-4).
-« La Sphère, les fléaux », in Dictatorad, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2137, 2016  (ISBN 978-1-61227-489-8).
-Fantastique
-Dans ce genre littéraire, Max-André Rayjean n'a apparemment écrit que des romans.
-Au Fleuve noir
-Le Sang et la Chair, Fleuve noir, coll. « Angoisse » no 178, 1970.
+« La Sphère, les fléaux », in Dictatorad, Black Coat Press, coll. « Rivière Blanche / Collection Blanche » no 2137, 2016  (ISBN 978-1-61227-489-8).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fantastique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce genre littéraire, Max-André Rayjean n'a apparemment écrit que des romans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fantastique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Au Fleuve noir</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le Sang et la Chair, Fleuve noir, coll. « Angoisse » no 178, 1970.
 La Bête du néant, Fleuve noir, coll. « Angoisse » no 184, 1970.
 Dans les griffes du diable, Fleuve noir, coll. « Angoisse » no 202, 1971.
 La Malédiction des vautours, Fleuve noir, coll. « Angoisse » no 222, 1972.
 La Dent du loup, Fleuve noir, coll. « Angoisse » no 229, 1973.
-Le Squelette de volupté, Fleuve noir, coll. « Angoisse » no 261, 1974.
-À la Rivière Blanche
-Momie de Sang in Momie de Sang suivi de Le Secret des Roches Noires, Black Coat Press, coll. « Rivière Blanche / Collection Noire » no 43, 2012  (ISBN 978-1-61227-125-5).
+Le Squelette de volupté, Fleuve noir, coll. « Angoisse » no 261, 1974.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fantastique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>À la Rivière Blanche</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Momie de Sang in Momie de Sang suivi de Le Secret des Roches Noires, Black Coat Press, coll. « Rivière Blanche / Collection Noire » no 43, 2012  (ISBN 978-1-61227-125-5).
 Le Secret des Roches Noires in Momie de Sang suivi de Le Secret des Roches Noires, Black Coat Press, coll. « Rivière Blanche / Collection Noire » no 43, 2012  (ISBN 978-1-61227-125-5).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Max-Andr%C3%A9_Rayjean</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Max-André_Rayjean</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Max-Andr%C3%A9_Rayjean</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lauréat du Grand prix de science-fiction en 1957 et 1974[7].</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lauréat du Grand prix de science-fiction en 1957 et 1974.</t>
         </is>
       </c>
     </row>
